--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.72</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007016</t>
+          <t>100026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国睿泽回报混合</t>
+          <t>富国天合稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.23</t>
+          <t>56.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>002593</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>富国美丽中国混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>54.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>007016</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>富国睿泽回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>78.93</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.53</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>007994</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>华夏中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006557</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通研究精选混合A</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -762,26 +862,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006556</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海富通研究精选混合C</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>100026</t>
+          <t>007995</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国天合稳健混合</t>
+          <t>华夏中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -818,25 +938,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>58.77</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>006557</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>海富通研究精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002593</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国美丽中国混合</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>006556</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>海富通研究精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,1390 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2550,4 +2551,2490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0686</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7736</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2547</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008251</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008252</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5037,4 +5038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5046,7 +5047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5057,17 +5058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5077,14 +5098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.13</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5093,14 +5136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.62</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5109,14 +5174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.94</v>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5125,13 +5212,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5749,7 +5750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5760,17 +5761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5780,14 +5801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.69</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5796,14 +5839,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.13</v>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5812,14 +5877,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.62</v>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5828,14 +5915,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.94</v>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5844,13 +5953,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6034,7 +6035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6045,17 +6046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6065,14 +6086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.38</v>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6081,14 +6124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.69</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6097,14 +6162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.13</v>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6113,14 +6200,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.62</v>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6129,14 +6238,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.94</v>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -6145,13 +6276,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.38</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>10.69</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>34.13</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>6.62</v>
+        <v>34.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>3.94</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,1350 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富估值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011981</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2363,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4849,7 +6210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6235,7 +7596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6861,7 +8222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603260-合盛硅业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>4.85</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>3.33</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>1.38</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>10.69</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>34.13</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>6.62</v>
+        <v>34.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>3.94</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +2735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2738,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3022,7 +3797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3724,7 +4499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6210,7 +6985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7596,7 +8371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8220,98 +8995,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>